--- a/Code/Results/Cases/Case_3_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.049505202455826</v>
+        <v>1.078137013973747</v>
       </c>
       <c r="D2">
-        <v>1.063327874340277</v>
+        <v>1.080861345261717</v>
       </c>
       <c r="E2">
-        <v>1.05902509627182</v>
+        <v>1.081748770553538</v>
       </c>
       <c r="F2">
-        <v>1.070290892898475</v>
+        <v>1.092630443851225</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066970129371012</v>
+        <v>1.060689797639377</v>
       </c>
       <c r="J2">
-        <v>1.070299722900877</v>
+        <v>1.083027989342997</v>
       </c>
       <c r="K2">
-        <v>1.073970203089059</v>
+        <v>1.083533673913592</v>
       </c>
       <c r="L2">
-        <v>1.069719092468211</v>
+        <v>1.084418783556346</v>
       </c>
       <c r="M2">
-        <v>1.080850699868491</v>
+        <v>1.095272392082283</v>
       </c>
       <c r="N2">
-        <v>1.071819671272491</v>
+        <v>1.08456601331291</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.055387828545919</v>
+        <v>1.079358037406426</v>
       </c>
       <c r="D3">
-        <v>1.068016597638821</v>
+        <v>1.081851429811832</v>
       </c>
       <c r="E3">
-        <v>1.063992697975641</v>
+        <v>1.082820762186736</v>
       </c>
       <c r="F3">
-        <v>1.075427850868198</v>
+        <v>1.093740839701269</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069185957428648</v>
+        <v>1.06108605080475</v>
       </c>
       <c r="J3">
-        <v>1.074474565251755</v>
+        <v>1.083908214199358</v>
       </c>
       <c r="K3">
-        <v>1.077847323549799</v>
+        <v>1.084341678701101</v>
       </c>
       <c r="L3">
-        <v>1.073867371108941</v>
+        <v>1.085308664556548</v>
       </c>
       <c r="M3">
-        <v>1.085178688753824</v>
+        <v>1.096202615747326</v>
       </c>
       <c r="N3">
-        <v>1.076000442378367</v>
+        <v>1.085447488189531</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.059105711360812</v>
+        <v>1.080148131065387</v>
       </c>
       <c r="D4">
-        <v>1.070982630542997</v>
+        <v>1.08249204819523</v>
       </c>
       <c r="E4">
-        <v>1.067137250198092</v>
+        <v>1.083514648132073</v>
       </c>
       <c r="F4">
-        <v>1.078679948008861</v>
+        <v>1.094459637419695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070577245055857</v>
+        <v>1.061341262349207</v>
       </c>
       <c r="J4">
-        <v>1.077109479487822</v>
+        <v>1.084477210106956</v>
       </c>
       <c r="K4">
-        <v>1.080293678640446</v>
+        <v>1.084863858677902</v>
       </c>
       <c r="L4">
-        <v>1.076487677490233</v>
+        <v>1.08588410776546</v>
       </c>
       <c r="M4">
-        <v>1.08791319654944</v>
+        <v>1.096804230217387</v>
       </c>
       <c r="N4">
-        <v>1.078639098494879</v>
+        <v>1.086017292136582</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.060648423881729</v>
+        <v>1.080480290201614</v>
       </c>
       <c r="D5">
-        <v>1.072213957478915</v>
+        <v>1.082761356865629</v>
       </c>
       <c r="E5">
-        <v>1.068443200336107</v>
+        <v>1.083806414787615</v>
       </c>
       <c r="F5">
-        <v>1.080030642659457</v>
+        <v>1.094761891750409</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.071152317667891</v>
+        <v>1.06144826854221</v>
       </c>
       <c r="J5">
-        <v>1.078201907768951</v>
+        <v>1.084716280621881</v>
       </c>
       <c r="K5">
-        <v>1.081307763874312</v>
+        <v>1.085083227342301</v>
       </c>
       <c r="L5">
-        <v>1.077574561255049</v>
+        <v>1.086125936277554</v>
       </c>
       <c r="M5">
-        <v>1.089047612301001</v>
+        <v>1.097057077114473</v>
       </c>
       <c r="N5">
-        <v>1.079733078149471</v>
+        <v>1.086256702159061</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.060906288212887</v>
+        <v>1.080536061443665</v>
       </c>
       <c r="D6">
-        <v>1.072419806707515</v>
+        <v>1.082806574562686</v>
       </c>
       <c r="E6">
-        <v>1.068661555153205</v>
+        <v>1.083855407052643</v>
       </c>
       <c r="F6">
-        <v>1.080256483458882</v>
+        <v>1.094812645808128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071248308552674</v>
+        <v>1.061466218665128</v>
       </c>
       <c r="J6">
-        <v>1.078384452237755</v>
+        <v>1.084756413696416</v>
       </c>
       <c r="K6">
-        <v>1.081477207145005</v>
+        <v>1.085120051186806</v>
       </c>
       <c r="L6">
-        <v>1.077756209173429</v>
+        <v>1.08616653521689</v>
       </c>
       <c r="M6">
-        <v>1.089237213575098</v>
+        <v>1.097099527026041</v>
       </c>
       <c r="N6">
-        <v>1.079915881852358</v>
+        <v>1.086296892227164</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.059126403694928</v>
+        <v>1.080152569375469</v>
       </c>
       <c r="D7">
-        <v>1.070999144021911</v>
+        <v>1.082495646738923</v>
       </c>
       <c r="E7">
-        <v>1.067154762424241</v>
+        <v>1.083518546507681</v>
       </c>
       <c r="F7">
-        <v>1.078698059922895</v>
+        <v>1.094463675874112</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070584967360401</v>
+        <v>1.061342693289614</v>
       </c>
       <c r="J7">
-        <v>1.077124135842806</v>
+        <v>1.084480405109861</v>
       </c>
       <c r="K7">
-        <v>1.080307284593772</v>
+        <v>1.084866790504196</v>
       </c>
       <c r="L7">
-        <v>1.076502257441706</v>
+        <v>1.085887339434164</v>
       </c>
       <c r="M7">
-        <v>1.087928413478766</v>
+        <v>1.096807609051497</v>
       </c>
       <c r="N7">
-        <v>1.078653775663568</v>
+        <v>1.086020491676758</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.051512173604461</v>
+        <v>1.078549663363985</v>
       </c>
       <c r="D8">
-        <v>1.064926915437039</v>
+        <v>1.081195955999922</v>
       </c>
       <c r="E8">
-        <v>1.060718808749874</v>
+        <v>1.082111006697326</v>
       </c>
       <c r="F8">
-        <v>1.072042275510649</v>
+        <v>1.093005646109433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067727996742156</v>
+        <v>1.060823960001473</v>
       </c>
       <c r="J8">
-        <v>1.071724787413846</v>
+        <v>1.083325583585074</v>
       </c>
       <c r="K8">
-        <v>1.075293773031397</v>
+        <v>1.083806878495261</v>
       </c>
       <c r="L8">
-        <v>1.071134632070397</v>
+        <v>1.08471959983373</v>
       </c>
       <c r="M8">
-        <v>1.082327417369898</v>
+        <v>1.095586828496776</v>
       </c>
       <c r="N8">
-        <v>1.073246759540525</v>
+        <v>1.084864030172946</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.037372197085109</v>
+        <v>1.075725150623065</v>
       </c>
       <c r="D9">
-        <v>1.053675204187321</v>
+        <v>1.078905463437924</v>
       </c>
       <c r="E9">
-        <v>1.048809592840495</v>
+        <v>1.079632520218068</v>
       </c>
       <c r="F9">
-        <v>1.059729059693974</v>
+        <v>1.09043866222805</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062351230502812</v>
+        <v>1.059900751114141</v>
       </c>
       <c r="J9">
-        <v>1.061670922357903</v>
+        <v>1.081286254488479</v>
       </c>
       <c r="K9">
-        <v>1.065953581653795</v>
+        <v>1.081934150028872</v>
       </c>
       <c r="L9">
-        <v>1.061157468289063</v>
+        <v>1.082659037892236</v>
       </c>
       <c r="M9">
-        <v>1.071922092019336</v>
+        <v>1.093433314525153</v>
       </c>
       <c r="N9">
-        <v>1.063178616843008</v>
+        <v>1.08282180499512</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.027392214626285</v>
+        <v>1.07384206008463</v>
       </c>
       <c r="D10">
-        <v>1.045755070988357</v>
+        <v>1.077378251998106</v>
       </c>
       <c r="E10">
-        <v>1.04043730511194</v>
+        <v>1.077981351874986</v>
       </c>
       <c r="F10">
-        <v>1.051074742447692</v>
+        <v>1.088728813076401</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058510860630433</v>
+        <v>1.059279114890893</v>
       </c>
       <c r="J10">
-        <v>1.054559655910133</v>
+        <v>1.079923705130482</v>
       </c>
       <c r="K10">
-        <v>1.059344585204856</v>
+        <v>1.080682245559367</v>
       </c>
       <c r="L10">
-        <v>1.054112916774469</v>
+        <v>1.081283369685657</v>
       </c>
       <c r="M10">
-        <v>1.064579245054176</v>
+        <v>1.091996024207569</v>
       </c>
       <c r="N10">
-        <v>1.056057251581209</v>
+        <v>1.081457320660748</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.022922729794366</v>
+        <v>1.073026620767153</v>
       </c>
       <c r="D11">
-        <v>1.042214250427943</v>
+        <v>1.076716892857213</v>
       </c>
       <c r="E11">
-        <v>1.036696754158213</v>
+        <v>1.077266642218907</v>
       </c>
       <c r="F11">
-        <v>1.047208685171886</v>
+        <v>1.087988769224691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056780879248933</v>
+        <v>1.059008472263439</v>
       </c>
       <c r="J11">
-        <v>1.051372039331418</v>
+        <v>1.079332984113287</v>
       </c>
       <c r="K11">
-        <v>1.056381684409684</v>
+        <v>1.080139336980078</v>
       </c>
       <c r="L11">
-        <v>1.050958288512665</v>
+        <v>1.080687215495957</v>
       </c>
       <c r="M11">
-        <v>1.061292041511959</v>
+        <v>1.091373269206001</v>
       </c>
       <c r="N11">
-        <v>1.052865108221327</v>
+        <v>1.080865760751952</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.021238730225284</v>
+        <v>1.072723721086125</v>
       </c>
       <c r="D12">
-        <v>1.040881179970439</v>
+        <v>1.076471223807084</v>
       </c>
       <c r="E12">
-        <v>1.035288839653911</v>
+        <v>1.077001204922919</v>
       </c>
       <c r="F12">
-        <v>1.045753608515761</v>
+        <v>1.087713932938195</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056127609656244</v>
+        <v>1.058907722156542</v>
       </c>
       <c r="J12">
-        <v>1.050170655946212</v>
+        <v>1.079113453555725</v>
       </c>
       <c r="K12">
-        <v>1.055264946107987</v>
+        <v>1.079937551622224</v>
       </c>
       <c r="L12">
-        <v>1.049769813185433</v>
+        <v>1.080465704121307</v>
       </c>
       <c r="M12">
-        <v>1.060053775613708</v>
+        <v>1.091141889433832</v>
       </c>
       <c r="N12">
-        <v>1.051662018733914</v>
+        <v>1.080645918435817</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.02160105945312</v>
+        <v>1.072788694543189</v>
       </c>
       <c r="D13">
-        <v>1.041167955086418</v>
+        <v>1.076523921155104</v>
       </c>
       <c r="E13">
-        <v>1.035591699794683</v>
+        <v>1.077058140433366</v>
       </c>
       <c r="F13">
-        <v>1.04606661028526</v>
+        <v>1.087772884054693</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056268231609255</v>
+        <v>1.058929343423062</v>
       </c>
       <c r="J13">
-        <v>1.050429160716866</v>
+        <v>1.079160548621766</v>
       </c>
       <c r="K13">
-        <v>1.055505239490237</v>
+        <v>1.07998084093447</v>
       </c>
       <c r="L13">
-        <v>1.050025518840586</v>
+        <v>1.080513222388964</v>
       </c>
       <c r="M13">
-        <v>1.060320186803908</v>
+        <v>1.091191523948153</v>
       </c>
       <c r="N13">
-        <v>1.051920890610992</v>
+        <v>1.080693080382254</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.022784025758081</v>
+        <v>1.073001583183897</v>
       </c>
       <c r="D14">
-        <v>1.042104429434322</v>
+        <v>1.076696586002361</v>
       </c>
       <c r="E14">
-        <v>1.036580760282836</v>
+        <v>1.077244700325729</v>
       </c>
       <c r="F14">
-        <v>1.047088804157804</v>
+        <v>1.087966050178414</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05672710125976</v>
+        <v>1.059000148747402</v>
       </c>
       <c r="J14">
-        <v>1.051273093326793</v>
+        <v>1.079314839908676</v>
       </c>
       <c r="K14">
-        <v>1.056289710663656</v>
+        <v>1.080122659893301</v>
       </c>
       <c r="L14">
-        <v>1.05086039589783</v>
+        <v>1.080668906794568</v>
       </c>
       <c r="M14">
-        <v>1.061190044540121</v>
+        <v>1.09135414452822</v>
       </c>
       <c r="N14">
-        <v>1.052766021702026</v>
+        <v>1.080847590780488</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.023509682211974</v>
+        <v>1.073132749624386</v>
       </c>
       <c r="D15">
-        <v>1.042679021330784</v>
+        <v>1.076802969055179</v>
       </c>
       <c r="E15">
-        <v>1.037187663432047</v>
+        <v>1.077359650999232</v>
       </c>
       <c r="F15">
-        <v>1.047716048765559</v>
+        <v>1.08808507266063</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057008392262938</v>
+        <v>1.059043744893216</v>
       </c>
       <c r="J15">
-        <v>1.051790733768779</v>
+        <v>1.079409889192366</v>
       </c>
       <c r="K15">
-        <v>1.05677087355644</v>
+        <v>1.080210022652298</v>
       </c>
       <c r="L15">
-        <v>1.051372544898283</v>
+        <v>1.080764819372124</v>
       </c>
       <c r="M15">
-        <v>1.061723672858872</v>
+        <v>1.091454332345822</v>
       </c>
       <c r="N15">
-        <v>1.053284397252814</v>
+        <v>1.080942775045064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.02768558754404</v>
+        <v>1.073896176918874</v>
       </c>
       <c r="D16">
-        <v>1.045987623965199</v>
+        <v>1.07742214275441</v>
       </c>
       <c r="E16">
-        <v>1.040683025210952</v>
+        <v>1.078028790138422</v>
       </c>
       <c r="F16">
-        <v>1.051328717745981</v>
+        <v>1.088777934266112</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058624210574314</v>
+        <v>1.059297045533599</v>
       </c>
       <c r="J16">
-        <v>1.054768834175906</v>
+        <v>1.079962893905946</v>
       </c>
       <c r="K16">
-        <v>1.059539009588669</v>
+        <v>1.080718259141683</v>
       </c>
       <c r="L16">
-        <v>1.054319995317061</v>
+        <v>1.081322924266738</v>
       </c>
       <c r="M16">
-        <v>1.064795047494367</v>
+        <v>1.092037345925071</v>
       </c>
       <c r="N16">
-        <v>1.056266726904112</v>
+        <v>1.081496565088767</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.03026430102495</v>
+        <v>1.074375040317783</v>
       </c>
       <c r="D17">
-        <v>1.048032449254974</v>
+        <v>1.077810515668854</v>
       </c>
       <c r="E17">
-        <v>1.042843901039876</v>
+        <v>1.078448591621878</v>
       </c>
       <c r="F17">
-        <v>1.053562247128092</v>
+        <v>1.089212636295432</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059619405454181</v>
+        <v>1.059455540388879</v>
       </c>
       <c r="J17">
-        <v>1.056607168532804</v>
+        <v>1.080309583448025</v>
       </c>
       <c r="K17">
-        <v>1.061247634958283</v>
+        <v>1.081036840778142</v>
       </c>
       <c r="L17">
-        <v>1.056140227618092</v>
+        <v>1.081672879345813</v>
       </c>
       <c r="M17">
-        <v>1.06669207792524</v>
+        <v>1.0924029475189</v>
       </c>
       <c r="N17">
-        <v>1.058107671906657</v>
+        <v>1.081843746969762</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.031754247274564</v>
+        <v>1.074654348666157</v>
       </c>
       <c r="D18">
-        <v>1.049214498465613</v>
+        <v>1.078037040657405</v>
       </c>
       <c r="E18">
-        <v>1.044093264503568</v>
+        <v>1.078693479597301</v>
       </c>
       <c r="F18">
-        <v>1.054853664013623</v>
+        <v>1.089466222742306</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06019345721154</v>
+        <v>1.059547845954178</v>
       </c>
       <c r="J18">
-        <v>1.057669057294616</v>
+        <v>1.080511731408114</v>
       </c>
       <c r="K18">
-        <v>1.062234557734241</v>
+        <v>1.081222584449963</v>
       </c>
       <c r="L18">
-        <v>1.057191950560636</v>
+        <v>1.081876955897182</v>
       </c>
       <c r="M18">
-        <v>1.067788269184718</v>
+        <v>1.092616158325514</v>
       </c>
       <c r="N18">
-        <v>1.059171068672311</v>
+        <v>1.082046182003141</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.032259922147768</v>
+        <v>1.07474958487743</v>
       </c>
       <c r="D19">
-        <v>1.04961577059872</v>
+        <v>1.078114278770614</v>
       </c>
       <c r="E19">
-        <v>1.044517427081775</v>
+        <v>1.078776984315798</v>
       </c>
       <c r="F19">
-        <v>1.05529211174932</v>
+        <v>1.08955269464221</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060388120987153</v>
+        <v>1.059579295730501</v>
       </c>
       <c r="J19">
-        <v>1.058029404317931</v>
+        <v>1.080580646766699</v>
       </c>
       <c r="K19">
-        <v>1.062569457930613</v>
+        <v>1.081285904766359</v>
       </c>
       <c r="L19">
-        <v>1.05754889681707</v>
+        <v>1.081946532898165</v>
       </c>
       <c r="M19">
-        <v>1.068160323547068</v>
+        <v>1.092688851212389</v>
       </c>
       <c r="N19">
-        <v>1.059531927429731</v>
+        <v>1.08211519522944</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.029989106521291</v>
+        <v>1.074323663293189</v>
       </c>
       <c r="D20">
-        <v>1.047814169553112</v>
+        <v>1.07776884759447</v>
       </c>
       <c r="E20">
-        <v>1.04261320954611</v>
+        <v>1.078403548329568</v>
       </c>
       <c r="F20">
-        <v>1.05332379436839</v>
+        <v>1.089165993567254</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059513299566488</v>
+        <v>1.059438550061879</v>
       </c>
       <c r="J20">
-        <v>1.056411013834219</v>
+        <v>1.080272394208257</v>
       </c>
       <c r="K20">
-        <v>1.061065324706028</v>
+        <v>1.081002668223935</v>
       </c>
       <c r="L20">
-        <v>1.055945974202197</v>
+        <v>1.081635337276002</v>
       </c>
       <c r="M20">
-        <v>1.066489618827043</v>
+        <v>1.092363725908081</v>
       </c>
       <c r="N20">
-        <v>1.0579112386459</v>
+        <v>1.081806504917009</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.022436343069073</v>
+        <v>1.072938893054816</v>
       </c>
       <c r="D21">
-        <v>1.04182916340728</v>
+        <v>1.076645740813676</v>
       </c>
       <c r="E21">
-        <v>1.036290027569558</v>
+        <v>1.07718976205435</v>
       </c>
       <c r="F21">
-        <v>1.046788329786983</v>
+        <v>1.087909166225846</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056592275426496</v>
+        <v>1.058979304459694</v>
       </c>
       <c r="J21">
-        <v>1.051025064579213</v>
+        <v>1.079269408028419</v>
       </c>
       <c r="K21">
-        <v>1.056059158612184</v>
+        <v>1.080080901200725</v>
       </c>
       <c r="L21">
-        <v>1.050615015380142</v>
+        <v>1.080623063644654</v>
       </c>
       <c r="M21">
-        <v>1.060934378446893</v>
+        <v>1.091306258507374</v>
       </c>
       <c r="N21">
-        <v>1.052517640725176</v>
+        <v>1.08080209438175</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.017548829495931</v>
+        <v>1.072068178813811</v>
       </c>
       <c r="D22">
-        <v>1.037962234195807</v>
+        <v>1.075939536004151</v>
       </c>
       <c r="E22">
-        <v>1.032206647119688</v>
+        <v>1.076426824061169</v>
       </c>
       <c r="F22">
-        <v>1.042568314762709</v>
+        <v>1.087119231736318</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054693597107013</v>
+        <v>1.058689277398239</v>
       </c>
       <c r="J22">
-        <v>1.047537654682872</v>
+        <v>1.078638151132625</v>
       </c>
       <c r="K22">
-        <v>1.052817386104764</v>
+        <v>1.079500626392564</v>
       </c>
       <c r="L22">
-        <v>1.047165990406329</v>
+        <v>1.079986183264129</v>
       </c>
       <c r="M22">
-        <v>1.057341159790454</v>
+        <v>1.090641034345335</v>
       </c>
       <c r="N22">
-        <v>1.04902527830677</v>
+        <v>1.080169941028759</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.020153517565142</v>
+        <v>1.072529766681095</v>
       </c>
       <c r="D23">
-        <v>1.040022418725334</v>
+        <v>1.076313914783466</v>
       </c>
       <c r="E23">
-        <v>1.034381961746641</v>
+        <v>1.076831251613217</v>
       </c>
       <c r="F23">
-        <v>1.044816374303244</v>
+        <v>1.087537964470734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055706225026328</v>
+        <v>1.058843147842727</v>
       </c>
       <c r="J23">
-        <v>1.049396360506648</v>
+        <v>1.07897285334921</v>
       </c>
       <c r="K23">
-        <v>1.054545193172023</v>
+        <v>1.07980830990463</v>
       </c>
       <c r="L23">
-        <v>1.04900397248607</v>
+        <v>1.080323846084541</v>
       </c>
       <c r="M23">
-        <v>1.059255894990838</v>
+        <v>1.090993715974382</v>
       </c>
       <c r="N23">
-        <v>1.050886623706012</v>
+        <v>1.080505118560882</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.030113498755804</v>
+        <v>1.074346878372711</v>
       </c>
       <c r="D24">
-        <v>1.047912833623204</v>
+        <v>1.077787675623066</v>
       </c>
       <c r="E24">
-        <v>1.04271748312825</v>
+        <v>1.078423901377325</v>
       </c>
       <c r="F24">
-        <v>1.053431575931743</v>
+        <v>1.089187069308873</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059561264071776</v>
+        <v>1.059446227697277</v>
       </c>
       <c r="J24">
-        <v>1.05649967969883</v>
+        <v>1.080289198641437</v>
       </c>
       <c r="K24">
-        <v>1.061147732732271</v>
+        <v>1.081018109575917</v>
       </c>
       <c r="L24">
-        <v>1.056033779748035</v>
+        <v>1.081652301064199</v>
       </c>
       <c r="M24">
-        <v>1.066581133174746</v>
+        <v>1.09238144858413</v>
       </c>
       <c r="N24">
-        <v>1.058000030426209</v>
+        <v>1.08182333321441</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.041119966773257</v>
+        <v>1.076455362709368</v>
       </c>
       <c r="D25">
-        <v>1.056654131447845</v>
+        <v>1.079497646319748</v>
       </c>
       <c r="E25">
-        <v>1.051960727049964</v>
+        <v>1.080273061713416</v>
       </c>
       <c r="F25">
-        <v>1.06298675735565</v>
+        <v>1.091102026460026</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063784344222613</v>
+        <v>1.060140507509202</v>
       </c>
       <c r="J25">
-        <v>1.064338525967456</v>
+        <v>1.081813994621782</v>
       </c>
       <c r="K25">
-        <v>1.068432311343135</v>
+        <v>1.082418895015689</v>
       </c>
       <c r="L25">
-        <v>1.063802622640709</v>
+        <v>1.083192085095581</v>
       </c>
       <c r="M25">
-        <v>1.074680087708743</v>
+        <v>1.093990331164697</v>
       </c>
       <c r="N25">
-        <v>1.065850008755665</v>
+        <v>1.083350294579945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_185/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_185/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.078137013973747</v>
+        <v>1.049505202455827</v>
       </c>
       <c r="D2">
-        <v>1.080861345261717</v>
+        <v>1.063327874340278</v>
       </c>
       <c r="E2">
-        <v>1.081748770553538</v>
+        <v>1.059025096271821</v>
       </c>
       <c r="F2">
-        <v>1.092630443851225</v>
+        <v>1.070290892898476</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060689797639377</v>
+        <v>1.066970129371013</v>
       </c>
       <c r="J2">
-        <v>1.083027989342997</v>
+        <v>1.070299722900879</v>
       </c>
       <c r="K2">
-        <v>1.083533673913592</v>
+        <v>1.07397020308906</v>
       </c>
       <c r="L2">
-        <v>1.084418783556346</v>
+        <v>1.069719092468212</v>
       </c>
       <c r="M2">
-        <v>1.095272392082283</v>
+        <v>1.080850699868492</v>
       </c>
       <c r="N2">
-        <v>1.08456601331291</v>
+        <v>1.071819671272492</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.079358037406426</v>
+        <v>1.055387828545917</v>
       </c>
       <c r="D3">
-        <v>1.081851429811832</v>
+        <v>1.06801659763882</v>
       </c>
       <c r="E3">
-        <v>1.082820762186736</v>
+        <v>1.06399269797564</v>
       </c>
       <c r="F3">
-        <v>1.093740839701269</v>
+        <v>1.075427850868197</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06108605080475</v>
+        <v>1.069185957428647</v>
       </c>
       <c r="J3">
-        <v>1.083908214199358</v>
+        <v>1.074474565251753</v>
       </c>
       <c r="K3">
-        <v>1.084341678701101</v>
+        <v>1.077847323549798</v>
       </c>
       <c r="L3">
-        <v>1.085308664556548</v>
+        <v>1.07386737110894</v>
       </c>
       <c r="M3">
-        <v>1.096202615747326</v>
+        <v>1.085178688753823</v>
       </c>
       <c r="N3">
-        <v>1.085447488189531</v>
+        <v>1.076000442378366</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.080148131065387</v>
+        <v>1.059105711360811</v>
       </c>
       <c r="D4">
-        <v>1.08249204819523</v>
+        <v>1.070982630542996</v>
       </c>
       <c r="E4">
-        <v>1.083514648132073</v>
+        <v>1.067137250198091</v>
       </c>
       <c r="F4">
-        <v>1.094459637419695</v>
+        <v>1.07867994800886</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061341262349207</v>
+        <v>1.070577245055856</v>
       </c>
       <c r="J4">
-        <v>1.084477210106956</v>
+        <v>1.077109479487821</v>
       </c>
       <c r="K4">
-        <v>1.084863858677902</v>
+        <v>1.080293678640444</v>
       </c>
       <c r="L4">
-        <v>1.08588410776546</v>
+        <v>1.076487677490232</v>
       </c>
       <c r="M4">
-        <v>1.096804230217387</v>
+        <v>1.087913196549439</v>
       </c>
       <c r="N4">
-        <v>1.086017292136582</v>
+        <v>1.078639098494877</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.080480290201614</v>
+        <v>1.060648423881728</v>
       </c>
       <c r="D5">
-        <v>1.082761356865629</v>
+        <v>1.072213957478914</v>
       </c>
       <c r="E5">
-        <v>1.083806414787615</v>
+        <v>1.068443200336106</v>
       </c>
       <c r="F5">
-        <v>1.094761891750409</v>
+        <v>1.080030642659457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06144826854221</v>
+        <v>1.07115231766789</v>
       </c>
       <c r="J5">
-        <v>1.084716280621881</v>
+        <v>1.078201907768951</v>
       </c>
       <c r="K5">
-        <v>1.085083227342301</v>
+        <v>1.081307763874311</v>
       </c>
       <c r="L5">
-        <v>1.086125936277554</v>
+        <v>1.077574561255048</v>
       </c>
       <c r="M5">
-        <v>1.097057077114473</v>
+        <v>1.089047612301001</v>
       </c>
       <c r="N5">
-        <v>1.086256702159061</v>
+        <v>1.07973307814947</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.080536061443665</v>
+        <v>1.060906288212888</v>
       </c>
       <c r="D6">
-        <v>1.082806574562686</v>
+        <v>1.072419806707515</v>
       </c>
       <c r="E6">
-        <v>1.083855407052643</v>
+        <v>1.068661555153205</v>
       </c>
       <c r="F6">
-        <v>1.094812645808128</v>
+        <v>1.080256483458882</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061466218665128</v>
+        <v>1.071248308552674</v>
       </c>
       <c r="J6">
-        <v>1.084756413696416</v>
+        <v>1.078384452237756</v>
       </c>
       <c r="K6">
-        <v>1.085120051186806</v>
+        <v>1.081477207145005</v>
       </c>
       <c r="L6">
-        <v>1.08616653521689</v>
+        <v>1.077756209173429</v>
       </c>
       <c r="M6">
-        <v>1.097099527026041</v>
+        <v>1.089237213575098</v>
       </c>
       <c r="N6">
-        <v>1.086296892227164</v>
+        <v>1.079915881852358</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.080152569375469</v>
+        <v>1.059126403694927</v>
       </c>
       <c r="D7">
-        <v>1.082495646738923</v>
+        <v>1.07099914402191</v>
       </c>
       <c r="E7">
-        <v>1.083518546507681</v>
+        <v>1.067154762424241</v>
       </c>
       <c r="F7">
-        <v>1.094463675874112</v>
+        <v>1.078698059922894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061342693289614</v>
+        <v>1.0705849673604</v>
       </c>
       <c r="J7">
-        <v>1.084480405109861</v>
+        <v>1.077124135842805</v>
       </c>
       <c r="K7">
-        <v>1.084866790504196</v>
+        <v>1.080307284593771</v>
       </c>
       <c r="L7">
-        <v>1.085887339434164</v>
+        <v>1.076502257441705</v>
       </c>
       <c r="M7">
-        <v>1.096807609051497</v>
+        <v>1.087928413478765</v>
       </c>
       <c r="N7">
-        <v>1.086020491676758</v>
+        <v>1.078653775663567</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.078549663363985</v>
+        <v>1.051512173604461</v>
       </c>
       <c r="D8">
-        <v>1.081195955999922</v>
+        <v>1.064926915437039</v>
       </c>
       <c r="E8">
-        <v>1.082111006697326</v>
+        <v>1.060718808749875</v>
       </c>
       <c r="F8">
-        <v>1.093005646109433</v>
+        <v>1.07204227551065</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060823960001473</v>
+        <v>1.067727996742156</v>
       </c>
       <c r="J8">
-        <v>1.083325583585074</v>
+        <v>1.071724787413846</v>
       </c>
       <c r="K8">
-        <v>1.083806878495261</v>
+        <v>1.075293773031397</v>
       </c>
       <c r="L8">
-        <v>1.08471959983373</v>
+        <v>1.071134632070397</v>
       </c>
       <c r="M8">
-        <v>1.095586828496776</v>
+        <v>1.082327417369898</v>
       </c>
       <c r="N8">
-        <v>1.084864030172946</v>
+        <v>1.073246759540526</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.075725150623065</v>
+        <v>1.037372197085109</v>
       </c>
       <c r="D9">
-        <v>1.078905463437924</v>
+        <v>1.053675204187321</v>
       </c>
       <c r="E9">
-        <v>1.079632520218068</v>
+        <v>1.048809592840494</v>
       </c>
       <c r="F9">
-        <v>1.09043866222805</v>
+        <v>1.059729059693973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059900751114141</v>
+        <v>1.062351230502811</v>
       </c>
       <c r="J9">
-        <v>1.081286254488479</v>
+        <v>1.061670922357902</v>
       </c>
       <c r="K9">
-        <v>1.081934150028872</v>
+        <v>1.065953581653795</v>
       </c>
       <c r="L9">
-        <v>1.082659037892236</v>
+        <v>1.061157468289062</v>
       </c>
       <c r="M9">
-        <v>1.093433314525153</v>
+        <v>1.071922092019335</v>
       </c>
       <c r="N9">
-        <v>1.08282180499512</v>
+        <v>1.063178616843007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.07384206008463</v>
+        <v>1.027392214626286</v>
       </c>
       <c r="D10">
-        <v>1.077378251998106</v>
+        <v>1.045755070988357</v>
       </c>
       <c r="E10">
-        <v>1.077981351874986</v>
+        <v>1.040437305111941</v>
       </c>
       <c r="F10">
-        <v>1.088728813076401</v>
+        <v>1.051074742447693</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059279114890893</v>
+        <v>1.058510860630433</v>
       </c>
       <c r="J10">
-        <v>1.079923705130482</v>
+        <v>1.054559655910134</v>
       </c>
       <c r="K10">
-        <v>1.080682245559367</v>
+        <v>1.059344585204857</v>
       </c>
       <c r="L10">
-        <v>1.081283369685657</v>
+        <v>1.05411291677447</v>
       </c>
       <c r="M10">
-        <v>1.091996024207569</v>
+        <v>1.064579245054177</v>
       </c>
       <c r="N10">
-        <v>1.081457320660748</v>
+        <v>1.056057251581209</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.073026620767153</v>
+        <v>1.022922729794365</v>
       </c>
       <c r="D11">
-        <v>1.076716892857213</v>
+        <v>1.042214250427942</v>
       </c>
       <c r="E11">
-        <v>1.077266642218907</v>
+        <v>1.036696754158212</v>
       </c>
       <c r="F11">
-        <v>1.087988769224691</v>
+        <v>1.047208685171885</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059008472263439</v>
+        <v>1.056780879248933</v>
       </c>
       <c r="J11">
-        <v>1.079332984113287</v>
+        <v>1.051372039331417</v>
       </c>
       <c r="K11">
-        <v>1.080139336980078</v>
+        <v>1.056381684409684</v>
       </c>
       <c r="L11">
-        <v>1.080687215495957</v>
+        <v>1.050958288512665</v>
       </c>
       <c r="M11">
-        <v>1.091373269206001</v>
+        <v>1.061292041511959</v>
       </c>
       <c r="N11">
-        <v>1.080865760751952</v>
+        <v>1.052865108221327</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.072723721086125</v>
+        <v>1.021238730225283</v>
       </c>
       <c r="D12">
-        <v>1.076471223807084</v>
+        <v>1.040881179970439</v>
       </c>
       <c r="E12">
-        <v>1.077001204922919</v>
+        <v>1.03528883965391</v>
       </c>
       <c r="F12">
-        <v>1.087713932938195</v>
+        <v>1.045753608515761</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.058907722156542</v>
+        <v>1.056127609656244</v>
       </c>
       <c r="J12">
-        <v>1.079113453555725</v>
+        <v>1.050170655946212</v>
       </c>
       <c r="K12">
-        <v>1.079937551622224</v>
+        <v>1.055264946107987</v>
       </c>
       <c r="L12">
-        <v>1.080465704121307</v>
+        <v>1.049769813185432</v>
       </c>
       <c r="M12">
-        <v>1.091141889433832</v>
+        <v>1.060053775613708</v>
       </c>
       <c r="N12">
-        <v>1.080645918435817</v>
+        <v>1.051662018733913</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.072788694543189</v>
+        <v>1.021601059453119</v>
       </c>
       <c r="D13">
-        <v>1.076523921155104</v>
+        <v>1.041167955086417</v>
       </c>
       <c r="E13">
-        <v>1.077058140433366</v>
+        <v>1.035591699794681</v>
       </c>
       <c r="F13">
-        <v>1.087772884054693</v>
+        <v>1.046066610285259</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058929343423062</v>
+        <v>1.056268231609254</v>
       </c>
       <c r="J13">
-        <v>1.079160548621766</v>
+        <v>1.050429160716864</v>
       </c>
       <c r="K13">
-        <v>1.07998084093447</v>
+        <v>1.055505239490235</v>
       </c>
       <c r="L13">
-        <v>1.080513222388964</v>
+        <v>1.050025518840585</v>
       </c>
       <c r="M13">
-        <v>1.091191523948153</v>
+        <v>1.060320186803907</v>
       </c>
       <c r="N13">
-        <v>1.080693080382254</v>
+        <v>1.051920890610991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.073001583183897</v>
+        <v>1.022784025758082</v>
       </c>
       <c r="D14">
-        <v>1.076696586002361</v>
+        <v>1.042104429434322</v>
       </c>
       <c r="E14">
-        <v>1.077244700325729</v>
+        <v>1.036580760282837</v>
       </c>
       <c r="F14">
-        <v>1.087966050178414</v>
+        <v>1.047088804157805</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059000148747402</v>
+        <v>1.05672710125976</v>
       </c>
       <c r="J14">
-        <v>1.079314839908676</v>
+        <v>1.051273093326794</v>
       </c>
       <c r="K14">
-        <v>1.080122659893301</v>
+        <v>1.056289710663656</v>
       </c>
       <c r="L14">
-        <v>1.080668906794568</v>
+        <v>1.05086039589783</v>
       </c>
       <c r="M14">
-        <v>1.09135414452822</v>
+        <v>1.061190044540122</v>
       </c>
       <c r="N14">
-        <v>1.080847590780488</v>
+        <v>1.052766021702027</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.073132749624386</v>
+        <v>1.023509682211974</v>
       </c>
       <c r="D15">
-        <v>1.076802969055179</v>
+        <v>1.042679021330784</v>
       </c>
       <c r="E15">
-        <v>1.077359650999232</v>
+        <v>1.037187663432047</v>
       </c>
       <c r="F15">
-        <v>1.08808507266063</v>
+        <v>1.047716048765559</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059043744893216</v>
+        <v>1.057008392262939</v>
       </c>
       <c r="J15">
-        <v>1.079409889192366</v>
+        <v>1.051790733768779</v>
       </c>
       <c r="K15">
-        <v>1.080210022652298</v>
+        <v>1.05677087355644</v>
       </c>
       <c r="L15">
-        <v>1.080764819372124</v>
+        <v>1.051372544898283</v>
       </c>
       <c r="M15">
-        <v>1.091454332345822</v>
+        <v>1.061723672858872</v>
       </c>
       <c r="N15">
-        <v>1.080942775045064</v>
+        <v>1.053284397252814</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.073896176918874</v>
+        <v>1.027685587544037</v>
       </c>
       <c r="D16">
-        <v>1.07742214275441</v>
+        <v>1.045987623965196</v>
       </c>
       <c r="E16">
-        <v>1.078028790138422</v>
+        <v>1.040683025210949</v>
       </c>
       <c r="F16">
-        <v>1.088777934266112</v>
+        <v>1.051328717745978</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059297045533599</v>
+        <v>1.058624210574313</v>
       </c>
       <c r="J16">
-        <v>1.079962893905946</v>
+        <v>1.054768834175903</v>
       </c>
       <c r="K16">
-        <v>1.080718259141683</v>
+        <v>1.059539009588666</v>
       </c>
       <c r="L16">
-        <v>1.081322924266738</v>
+        <v>1.054319995317059</v>
       </c>
       <c r="M16">
-        <v>1.092037345925071</v>
+        <v>1.064795047494365</v>
       </c>
       <c r="N16">
-        <v>1.081496565088767</v>
+        <v>1.05626672690411</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.074375040317783</v>
+        <v>1.030264301024948</v>
       </c>
       <c r="D17">
-        <v>1.077810515668854</v>
+        <v>1.048032449254972</v>
       </c>
       <c r="E17">
-        <v>1.078448591621878</v>
+        <v>1.042843901039874</v>
       </c>
       <c r="F17">
-        <v>1.089212636295432</v>
+        <v>1.05356224712809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059455540388879</v>
+        <v>1.05961940545418</v>
       </c>
       <c r="J17">
-        <v>1.080309583448025</v>
+        <v>1.056607168532802</v>
       </c>
       <c r="K17">
-        <v>1.081036840778142</v>
+        <v>1.061247634958281</v>
       </c>
       <c r="L17">
-        <v>1.081672879345813</v>
+        <v>1.05614022761809</v>
       </c>
       <c r="M17">
-        <v>1.0924029475189</v>
+        <v>1.066692077925238</v>
       </c>
       <c r="N17">
-        <v>1.081843746969762</v>
+        <v>1.058107671906655</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.074654348666157</v>
+        <v>1.031754247274565</v>
       </c>
       <c r="D18">
-        <v>1.078037040657405</v>
+        <v>1.049214498465614</v>
       </c>
       <c r="E18">
-        <v>1.078693479597301</v>
+        <v>1.044093264503569</v>
       </c>
       <c r="F18">
-        <v>1.089466222742306</v>
+        <v>1.054853664013623</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059547845954178</v>
+        <v>1.060193457211541</v>
       </c>
       <c r="J18">
-        <v>1.080511731408114</v>
+        <v>1.057669057294617</v>
       </c>
       <c r="K18">
-        <v>1.081222584449963</v>
+        <v>1.062234557734241</v>
       </c>
       <c r="L18">
-        <v>1.081876955897182</v>
+        <v>1.057191950560636</v>
       </c>
       <c r="M18">
-        <v>1.092616158325514</v>
+        <v>1.067788269184718</v>
       </c>
       <c r="N18">
-        <v>1.082046182003141</v>
+        <v>1.059171068672311</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.07474958487743</v>
+        <v>1.032259922147766</v>
       </c>
       <c r="D19">
-        <v>1.078114278770614</v>
+        <v>1.049615770598718</v>
       </c>
       <c r="E19">
-        <v>1.078776984315798</v>
+        <v>1.044517427081774</v>
       </c>
       <c r="F19">
-        <v>1.08955269464221</v>
+        <v>1.055292111749319</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059579295730501</v>
+        <v>1.060388120987152</v>
       </c>
       <c r="J19">
-        <v>1.080580646766699</v>
+        <v>1.058029404317929</v>
       </c>
       <c r="K19">
-        <v>1.081285904766359</v>
+        <v>1.062569457930612</v>
       </c>
       <c r="L19">
-        <v>1.081946532898165</v>
+        <v>1.057548896817069</v>
       </c>
       <c r="M19">
-        <v>1.092688851212389</v>
+        <v>1.068160323547067</v>
       </c>
       <c r="N19">
-        <v>1.08211519522944</v>
+        <v>1.059531927429729</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.074323663293189</v>
+        <v>1.02998910652129</v>
       </c>
       <c r="D20">
-        <v>1.07776884759447</v>
+        <v>1.047814169553111</v>
       </c>
       <c r="E20">
-        <v>1.078403548329568</v>
+        <v>1.04261320954611</v>
       </c>
       <c r="F20">
-        <v>1.089165993567254</v>
+        <v>1.05332379436839</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059438550061879</v>
+        <v>1.059513299566488</v>
       </c>
       <c r="J20">
-        <v>1.080272394208257</v>
+        <v>1.056411013834218</v>
       </c>
       <c r="K20">
-        <v>1.081002668223935</v>
+        <v>1.061065324706027</v>
       </c>
       <c r="L20">
-        <v>1.081635337276002</v>
+        <v>1.055945974202197</v>
       </c>
       <c r="M20">
-        <v>1.092363725908081</v>
+        <v>1.066489618827043</v>
       </c>
       <c r="N20">
-        <v>1.081806504917009</v>
+        <v>1.057911238645899</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.072938893054816</v>
+        <v>1.022436343069074</v>
       </c>
       <c r="D21">
-        <v>1.076645740813676</v>
+        <v>1.04182916340728</v>
       </c>
       <c r="E21">
-        <v>1.07718976205435</v>
+        <v>1.036290027569559</v>
       </c>
       <c r="F21">
-        <v>1.087909166225846</v>
+        <v>1.046788329786984</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.058979304459694</v>
+        <v>1.056592275426496</v>
       </c>
       <c r="J21">
-        <v>1.079269408028419</v>
+        <v>1.051025064579214</v>
       </c>
       <c r="K21">
-        <v>1.080080901200725</v>
+        <v>1.056059158612185</v>
       </c>
       <c r="L21">
-        <v>1.080623063644654</v>
+        <v>1.050615015380142</v>
       </c>
       <c r="M21">
-        <v>1.091306258507374</v>
+        <v>1.060934378446893</v>
       </c>
       <c r="N21">
-        <v>1.08080209438175</v>
+        <v>1.052517640725177</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.072068178813811</v>
+        <v>1.017548829495931</v>
       </c>
       <c r="D22">
-        <v>1.075939536004151</v>
+        <v>1.037962234195807</v>
       </c>
       <c r="E22">
-        <v>1.076426824061169</v>
+        <v>1.032206647119688</v>
       </c>
       <c r="F22">
-        <v>1.087119231736318</v>
+        <v>1.042568314762709</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.058689277398239</v>
+        <v>1.054693597107013</v>
       </c>
       <c r="J22">
-        <v>1.078638151132625</v>
+        <v>1.047537654682872</v>
       </c>
       <c r="K22">
-        <v>1.079500626392564</v>
+        <v>1.052817386104764</v>
       </c>
       <c r="L22">
-        <v>1.079986183264129</v>
+        <v>1.047165990406329</v>
       </c>
       <c r="M22">
-        <v>1.090641034345335</v>
+        <v>1.057341159790454</v>
       </c>
       <c r="N22">
-        <v>1.080169941028759</v>
+        <v>1.04902527830677</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.072529766681095</v>
+        <v>1.020153517565143</v>
       </c>
       <c r="D23">
-        <v>1.076313914783466</v>
+        <v>1.040022418725335</v>
       </c>
       <c r="E23">
-        <v>1.076831251613217</v>
+        <v>1.034381961746641</v>
       </c>
       <c r="F23">
-        <v>1.087537964470734</v>
+        <v>1.044816374303245</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.058843147842727</v>
+        <v>1.055706225026329</v>
       </c>
       <c r="J23">
-        <v>1.07897285334921</v>
+        <v>1.049396360506649</v>
       </c>
       <c r="K23">
-        <v>1.07980830990463</v>
+        <v>1.054545193172024</v>
       </c>
       <c r="L23">
-        <v>1.080323846084541</v>
+        <v>1.049003972486072</v>
       </c>
       <c r="M23">
-        <v>1.090993715974382</v>
+        <v>1.059255894990839</v>
       </c>
       <c r="N23">
-        <v>1.080505118560882</v>
+        <v>1.050886623706013</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.074346878372711</v>
+        <v>1.030113498755807</v>
       </c>
       <c r="D24">
-        <v>1.077787675623066</v>
+        <v>1.047912833623206</v>
       </c>
       <c r="E24">
-        <v>1.078423901377325</v>
+        <v>1.042717483128253</v>
       </c>
       <c r="F24">
-        <v>1.089187069308873</v>
+        <v>1.053431575931746</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059446227697277</v>
+        <v>1.059561264071778</v>
       </c>
       <c r="J24">
-        <v>1.080289198641437</v>
+        <v>1.056499679698832</v>
       </c>
       <c r="K24">
-        <v>1.081018109575917</v>
+        <v>1.061147732732274</v>
       </c>
       <c r="L24">
-        <v>1.081652301064199</v>
+        <v>1.056033779748038</v>
       </c>
       <c r="M24">
-        <v>1.09238144858413</v>
+        <v>1.066581133174749</v>
       </c>
       <c r="N24">
-        <v>1.08182333321441</v>
+        <v>1.058000030426212</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.076455362709368</v>
+        <v>1.041119966773257</v>
       </c>
       <c r="D25">
-        <v>1.079497646319748</v>
+        <v>1.056654131447845</v>
       </c>
       <c r="E25">
-        <v>1.080273061713416</v>
+        <v>1.051960727049964</v>
       </c>
       <c r="F25">
-        <v>1.091102026460026</v>
+        <v>1.06298675735565</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060140507509202</v>
+        <v>1.063784344222613</v>
       </c>
       <c r="J25">
-        <v>1.081813994621782</v>
+        <v>1.064338525967457</v>
       </c>
       <c r="K25">
-        <v>1.082418895015689</v>
+        <v>1.068432311343135</v>
       </c>
       <c r="L25">
-        <v>1.083192085095581</v>
+        <v>1.063802622640709</v>
       </c>
       <c r="M25">
-        <v>1.093990331164697</v>
+        <v>1.074680087708744</v>
       </c>
       <c r="N25">
-        <v>1.083350294579945</v>
+        <v>1.065850008755665</v>
       </c>
     </row>
   </sheetData>
